--- a/DataCW3M/SkillAssessment/Temp24monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp24monthsStatisticsCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3B7FB-2450-4BC3-80B6-AEFA2E189724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA095E8-5571-4444-8201-6BFDC8A68545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Month index</t>
   </si>
@@ -164,16 +164,23 @@
   <si>
     <t>MAE</t>
   </si>
+  <si>
+    <t xml:space="preserve"> USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -659,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -682,6 +689,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -846,76 +854,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>6.1286379999999996</c:v>
+                  <c:v>5.2630109999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9808060000000003</c:v>
+                  <c:v>3.9689220000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6108000000000002</c:v>
+                  <c:v>5.3977139999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0977370000000004</c:v>
+                  <c:v>6.7900359999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9576390000000004</c:v>
+                  <c:v>8.0409229999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.450449000000001</c:v>
+                  <c:v>9.6339389999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.579884</c:v>
+                  <c:v>10.283904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.325186</c:v>
+                  <c:v>10.655110000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.137890000000001</c:v>
+                  <c:v>8.7204519999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5797930000000004</c:v>
+                  <c:v>6.0433490000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.844519</c:v>
+                  <c:v>6.0408650000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8376659999999996</c:v>
+                  <c:v>4.3657329999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9122659999999998</c:v>
+                  <c:v>4.691846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9274509999999996</c:v>
+                  <c:v>4.9653580000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5206439999999999</c:v>
+                  <c:v>5.2252190000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4258170000000003</c:v>
+                  <c:v>6.8973000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8249289999999991</c:v>
+                  <c:v>7.9276479999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.538843</c:v>
+                  <c:v>9.0746249999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.794454999999999</c:v>
+                  <c:v>10.537362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.277737999999999</c:v>
+                  <c:v>10.470796</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.609985</c:v>
+                  <c:v>9.5040890000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.876217</c:v>
+                  <c:v>7.5371370000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8479000000000001</c:v>
+                  <c:v>5.0717800000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0494380000000003</c:v>
+                  <c:v>4.8290819999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +944,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,76 +968,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5.924798</c:v>
+                  <c:v>4.1109790000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1351440000000004</c:v>
+                  <c:v>2.8575520000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6382300000000001</c:v>
+                  <c:v>3.7842709999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4642090000000003</c:v>
+                  <c:v>5.474094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.948725</c:v>
+                  <c:v>8.5438500000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.313993</c:v>
+                  <c:v>11.242884999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.523859000000002</c:v>
+                  <c:v>12.688961000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.571672</c:v>
+                  <c:v>13.284344000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.632498999999999</c:v>
+                  <c:v>11.13861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.641197</c:v>
+                  <c:v>6.8337709999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1566989999999997</c:v>
+                  <c:v>5.036613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9214380000000002</c:v>
+                  <c:v>4.099933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4278230000000001</c:v>
+                  <c:v>3.9977299999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3669890000000002</c:v>
+                  <c:v>4.0558550000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3380660000000004</c:v>
+                  <c:v>4.4782960000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.4685769999999998</c:v>
+                  <c:v>5.9381779999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.971640000000001</c:v>
+                  <c:v>8.0011919999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.396042</c:v>
+                  <c:v>10.241529</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.501448</c:v>
+                  <c:v>12.795609000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.281116000000001</c:v>
+                  <c:v>12.995020999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.62007</c:v>
+                  <c:v>10.865838999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.421079000000001</c:v>
+                  <c:v>8.2171249999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6621800000000002</c:v>
+                  <c:v>5.3245519999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3589380000000002</c:v>
+                  <c:v>4.3577589999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3231,7 +3239,7 @@
   <dimension ref="A1:AD3182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I27"/>
+      <selection activeCell="H4" sqref="H4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,7 +3275,7 @@
       </c>
       <c r="B2" s="10">
         <f>H2-I2</f>
-        <v>-0.81457254166666893</v>
+        <v>-0.35118116666666843</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3277,11 +3285,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H27)</f>
-        <v>9.4223620833333328</v>
+        <v>7.1640083333333324</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I27)</f>
-        <v>10.236934625000002</v>
+        <v>7.5151895000000009</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3291,12 +3299,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P27)</f>
-        <v>1.7587411919276255</v>
+        <v>2.0089798070566669</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R27)</f>
-        <v>0.98768754166666684</v>
+        <v>1.2048333333333334</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S27)</f>
@@ -3315,11 +3323,11 @@
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>8.6450991212439057E-2</v>
+        <v>4.902020633234911E-2</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3334,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3403,7 +3411,7 @@
       </c>
       <c r="B4" s="11">
         <f>1-SUM(P4:P27)/SUM(M4:M27)</f>
-        <v>0.87975134966731194</v>
+        <v>0.83135020401648851</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -3413,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3422,46 +3430,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.1286379999999996</v>
+        <v>5.2630109999999997</v>
       </c>
       <c r="I4">
-        <v>5.924798</v>
+        <v>4.1109790000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-0.20383999999999958</v>
+        <v>-1.1520319999999993</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-4.3121366250000017</v>
+        <v>-3.4042105000000005</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-3.2937240833333332</v>
+        <v>-1.9009973333333328</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>18.594522272666406</v>
+        <v>11.588649128310253</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>10.848618337130006</v>
+        <v>3.6137908613404424</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>14.202988252386223</v>
+        <v>6.4713950826053326</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>4.1550745599999828E-2</v>
+        <v>1.3271777290239983</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>12.232954517023337</v>
+        <v>9.3209881101937704</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>0.20383999999999958</v>
+        <v>1.1520319999999993</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -3502,7 +3510,7 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P27))/SQRT(SUM(Q4:Q27))</f>
-        <v>0.33916088596207217</v>
+        <v>0.40856043689966476</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -3512,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3521,46 +3529,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>4.9808060000000003</v>
+        <v>3.9689220000000001</v>
       </c>
       <c r="I5">
-        <v>5.1351440000000004</v>
+        <v>2.8575520000000001</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J15" si="0">I5-H5</f>
-        <v>0.15433800000000009</v>
+        <v>-1.11137</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K15" si="1">I5-I$2</f>
-        <v>-5.1017906250000014</v>
+        <v>-4.6576375000000008</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L15" si="2">H5-H$2</f>
-        <v>-4.4415560833333325</v>
+        <v>-3.1950863333333324</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M15" si="3">K5*K5</f>
-        <v>26.028267581337904</v>
+        <v>21.693587081406257</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N15" si="4">L5*L5</f>
-        <v>19.727420441395331</v>
+        <v>10.208576677453438</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O15" si="5">K5*L5</f>
-        <v>22.65988918636172</v>
+        <v>14.881553921870831</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P15" si="6">J5*J5</f>
-        <v>2.3820218244000026E-2</v>
+        <v>1.2351432768999999</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q15" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>18.380238894060334</v>
+        <v>18.545566150906769</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R15" si="8">ABS(J5)</f>
-        <v>0.15433800000000009</v>
+        <v>1.11137</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -3599,9 +3607,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <f>B12*B12</f>
-        <v>0.96147094805508815</v>
+        <v>0.96051722198243328</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -3611,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3620,46 +3628,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>6.6108000000000002</v>
+        <v>5.3977139999999997</v>
       </c>
       <c r="I6">
-        <v>6.6382300000000001</v>
+        <v>3.7842709999999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>2.7429999999999843E-2</v>
+        <v>-1.6134429999999997</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5987046250000017</v>
+        <v>-3.7309185000000009</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8115620833333326</v>
+        <v>-1.7662943333333327</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12.950674977996403</v>
+        <v>13.919752853642256</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>7.9048813484376694</v>
+        <v>3.1197956719654423</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>10.117981472766305</v>
+        <v>6.5899002046784991</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>7.5240489999999144E-4</v>
+        <v>2.6031983142489992</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>7.7513914574460037</v>
+        <v>11.422624442327105</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>2.7429999999999843E-2</v>
+        <v>1.6134429999999997</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -3700,14 +3708,14 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>9.4223620833333328</v>
+        <v>7.1640083333333324</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -3716,46 +3724,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>8.0977370000000004</v>
+        <v>6.7900359999999997</v>
       </c>
       <c r="I7">
-        <v>8.4642090000000003</v>
+        <v>5.474094</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0.36647199999999991</v>
+        <v>-1.3159419999999997</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7727256250000014</v>
+        <v>-2.0410955000000008</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3246250833333324</v>
+        <v>-0.37397233333333268</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3.1425561415316454</v>
+        <v>4.1660708401202537</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>1.7546316113958378</v>
+        <v>0.1398553060987773</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>2.3481968287427608</v>
+        <v>0.76331324669116563</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>0.13430172678399993</v>
+        <v>1.7317033473639993</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.91805733110117205</v>
+        <v>2.8558104540054412</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>0.36647199999999991</v>
+        <v>1.3159419999999997</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -3796,14 +3804,14 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H27)</f>
-        <v>3.0208079239810721</v>
+        <v>2.1928998743773391</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3812,46 +3820,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>9.9576390000000004</v>
+        <v>8.0409229999999994</v>
       </c>
       <c r="I8">
-        <v>10.948725</v>
+        <v>8.5438500000000008</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.99108599999999925</v>
+        <v>0.50292700000000146</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.71179037499999787</v>
+        <v>1.0286605</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.53527691666666755</v>
+        <v>0.87691466666666695</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.50664553794263756</v>
+        <v>1.05814242426025</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.28652137751617457</v>
+        <v>0.76897933261511164</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.38100495724300992</v>
+        <v>0.90204747947066699</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>0.98225145939599845</v>
+        <v>0.25293556732900146</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2.3297837533751742</v>
+        <v>1.9039630250694493</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>0.99108599999999925</v>
+        <v>0.50292700000000146</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -3892,14 +3900,14 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>10.236934625000002</v>
+        <v>7.5151895000000009</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -3908,46 +3916,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>12.450449000000001</v>
+        <v>9.6339389999999998</v>
       </c>
       <c r="I9">
-        <v>14.313993</v>
+        <v>11.242884999999999</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.8635439999999992</v>
+        <v>1.6089459999999995</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>4.0770583749999982</v>
+        <v>3.7276954999999985</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>3.028086916666668</v>
+        <v>2.4699306666666674</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>16.622404993157627</v>
+        <v>13.89571374072024</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>9.1693103748878482</v>
+        <v>6.1005574981404482</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>12.34568712382376</v>
+        <v>9.2071494314453322</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>3.4727962399359971</v>
+        <v>2.5887072309159986</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>23.928053024889177</v>
+        <v>16.637234861877779</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.8635439999999992</v>
+        <v>1.6089459999999995</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -3988,13 +3996,13 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I27)</f>
-        <v>3.8243784509740082</v>
+        <v>3.4513966694992928</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -4003,46 +4011,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>13.579884</v>
+        <v>10.283904</v>
       </c>
       <c r="I10">
-        <v>16.523859000000002</v>
+        <v>12.688961000000001</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.9439750000000018</v>
+        <v>2.4050570000000011</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>6.2869243749999999</v>
+        <v>5.1737715</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.157521916666667</v>
+        <v>3.1198956666666673</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>39.52541809696914</v>
+        <v>26.767911534212249</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>17.284988487563677</v>
+        <v>9.7337489708854488</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>26.138025877488388</v>
+        <v>16.141627283173502</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>8.6669888006250098</v>
+        <v>5.7842991732490052</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>50.431258457426203</v>
+        <v>30.52510196890713</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.9439750000000018</v>
+        <v>2.4050570000000011</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4083,13 +4091,13 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1.3261754001366581</v>
+        <v>1.4173848479000568</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -4098,46 +4106,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>14.325186</v>
+        <v>10.655110000000001</v>
       </c>
       <c r="I11">
-        <v>16.571672</v>
+        <v>13.284344000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.2464859999999991</v>
+        <v>2.6292340000000003</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.3347373749999978</v>
+        <v>5.7691545</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.9028239166666676</v>
+        <v>3.4911016666666681</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>40.128897610221863</v>
+        <v>33.28314364487025</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>24.037682357838683</v>
+        <v>12.187790847002788</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>31.058101907952214</v>
+        <v>20.140704890207509</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>5.0466993481959959</v>
+        <v>6.9128714267560012</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>51.11263228454834</v>
+        <v>37.458508672672131</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>2.2464859999999991</v>
+        <v>2.6292340000000003</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4178,14 +4186,14 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O27)/SQRT(SUM(M4:M27)*SUM(N4:N27))</f>
-        <v>0.98054624982969985</v>
+        <v>0.98005980530906034</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -4194,46 +4202,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>12.137890000000001</v>
+        <v>8.7204519999999999</v>
       </c>
       <c r="I12">
-        <v>13.632498999999999</v>
+        <v>11.13861</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.4946089999999987</v>
+        <v>2.418158</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.3955643749999975</v>
+        <v>3.623420499999999</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>2.7155279166666677</v>
+        <v>1.5564436666666674</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>11.529857424769125</v>
+        <v>13.129176119820244</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>7.3740918661960126</v>
+        <v>2.4225168875067804</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>9.2207498531512986</v>
+        <v>5.6396498888951676</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>2.2338560628809963</v>
+        <v>5.8474881129640002</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>17.725252857079504</v>
+        <v>15.797458408669451</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>1.4946089999999987</v>
+        <v>2.418158</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4274,13 +4282,13 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>0.98768754166666684</v>
+        <v>1.2048333333333334</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -4289,46 +4297,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>9.5797930000000004</v>
+        <v>6.0433490000000001</v>
       </c>
       <c r="I13">
-        <v>9.641197</v>
+        <v>6.8337709999999996</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>6.140399999999957E-2</v>
+        <v>0.79042199999999951</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.59573762500000171</v>
+        <v>-0.68141850000000126</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.15743091666666764</v>
+        <v>-1.1206593333333323</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.35490331784064266</v>
+        <v>0.46433117214225172</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2.478449352250725E-2</v>
+        <v>1.2558773413871089</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>-9.3787520396573773E-2</v>
+        <v>0.76363800193100073</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>3.7704512159999473E-3</v>
+        <v>0.62476693808399919</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>4.7888720752507184E-2</v>
+        <v>0.10905669632711078</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>6.140399999999957E-2</v>
+        <v>0.79042199999999951</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4368,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -4377,46 +4385,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>8.844519</v>
+        <v>6.0408650000000002</v>
       </c>
       <c r="I14">
-        <v>7.1566989999999997</v>
+        <v>5.036613</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6878200000000003</v>
+        <v>-1.0042520000000001</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-3.080235625000002</v>
+        <v>-2.4785765000000008</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-0.57784308333333279</v>
+        <v>-1.1231433333333323</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>9.4878515055191528</v>
+        <v>6.1433414663522541</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>0.33390262895617295</v>
+        <v>1.2614509472111086</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1.7798928509431766</v>
+        <v>2.7837966721316652</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>2.8487363524000009</v>
+        <v>1.0085220795040002</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>5.1332292071795056</v>
+        <v>4.5258109042884405</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.6878200000000003</v>
+        <v>1.0042520000000001</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4454,13 +4462,13 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <f>B5</f>
-        <v>0.33916088596207217</v>
+        <v>0.40856043689966476</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -4469,46 +4477,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>5.8376659999999996</v>
+        <v>4.3657329999999996</v>
       </c>
       <c r="I15">
-        <v>5.9214380000000002</v>
+        <v>4.099933</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>8.3772000000000624E-2</v>
+        <v>-0.26579999999999959</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-4.3154966250000015</v>
+        <v>-3.4152565000000008</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5846960833333332</v>
+        <v>-2.7982753333333328</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>18.623511120386404</v>
+        <v>11.663976960792256</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>12.85004600986534</v>
+        <v>7.8303448411417751</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>15.469743849275725</v>
+        <v>9.556828020956333</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>7.0177479840001049E-3</v>
+        <v>7.0649639999999778E-2</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>12.256469437263336</v>
+        <v>9.3885576483417719</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>8.3772000000000624E-2</v>
+        <v>0.26579999999999959</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -4545,10 +4553,11 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D16">
-        <v>96</v>
+        <f>D15+1</f>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4557,46 +4566,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5.9122659999999998</v>
+        <v>4.691846</v>
       </c>
       <c r="I16">
-        <v>6.4278230000000001</v>
+        <v>3.9977299999999998</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ref="J16:J27" si="10">I16-H16</f>
-        <v>0.51555700000000027</v>
+        <v>-0.69411600000000018</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K27" si="11">I16-I$2</f>
-        <v>-3.8091116250000017</v>
+        <v>-3.5174595000000011</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L27" si="12">H16-H$2</f>
-        <v>-3.510096083333333</v>
+        <v>-2.4721623333333325</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ref="M16:M27" si="13">K16*K16</f>
-        <v>14.509331371710154</v>
+        <v>12.372521334140258</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ref="N16:N27" si="14">L16*L16</f>
-        <v>12.320774514232005</v>
+        <v>6.1115866023521068</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ref="O16:O27" si="15">K16*L16</f>
-        <v>13.370347795891973</v>
+        <v>8.6957308849254993</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P27" si="16">J16*J16</f>
-        <v>0.26579902024900026</v>
+        <v>0.48179702145600023</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q27" si="17">(I16-H$2)*(I16-H$2)</f>
-        <v>8.9672643216108359</v>
+        <v>10.025318484136108</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R27" si="18">ABS(J16)</f>
-        <v>0.51555700000000027</v>
+        <v>0.69411600000000018</v>
       </c>
       <c r="S16">
         <v>4.4663490000000001</v>
@@ -4612,10 +4621,11 @@
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D17">
-        <v>97</v>
+        <f t="shared" ref="D17:D27" si="20">D16+1</f>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -4624,46 +4634,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.9274509999999996</v>
+        <v>4.9653580000000002</v>
       </c>
       <c r="I17">
-        <v>6.3669890000000002</v>
+        <v>4.0558550000000002</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="10"/>
-        <v>0.43953800000000065</v>
+        <v>-0.90950299999999995</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="11"/>
-        <v>-3.8699456250000015</v>
+        <v>-3.4593345000000006</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="12"/>
-        <v>-3.4949110833333332</v>
+        <v>-2.1986503333333323</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="13"/>
-        <v>14.976479140456652</v>
+        <v>11.966995182890255</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="14"/>
-        <v>12.214403480406173</v>
+        <v>4.8340632882667727</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="15"/>
-        <v>13.525115856709849</v>
+        <v>7.6058669515364974</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="16"/>
-        <v>0.19319365344400058</v>
+        <v>0.82719570700899991</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="17"/>
-        <v>9.3353046783578364</v>
+        <v>9.6606171435111037</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="18"/>
-        <v>0.43953800000000065</v>
+        <v>0.90950299999999995</v>
       </c>
       <c r="S17">
         <v>4.6956059999999997</v>
@@ -4679,10 +4689,11 @@
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18">
-        <v>98</v>
+        <f t="shared" si="20"/>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -4691,46 +4702,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.5206439999999999</v>
+        <v>5.2252190000000001</v>
       </c>
       <c r="I18">
-        <v>7.3380660000000004</v>
+        <v>4.4782960000000003</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="10"/>
-        <v>0.81742200000000054</v>
+        <v>-0.74692299999999978</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="11"/>
-        <v>-2.8988686250000013</v>
+        <v>-3.0368935000000006</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="12"/>
-        <v>-2.9017180833333329</v>
+        <v>-1.9387893333333324</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="13"/>
-        <v>8.4034393050093978</v>
+        <v>9.2227221303422535</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="14"/>
-        <v>8.4199678351436713</v>
+        <v>3.7589040790471073</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="15"/>
-        <v>8.4116995103701377</v>
+        <v>5.8878967242693312</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="16"/>
-        <v>0.66817872608400086</v>
+        <v>0.5578939679289997</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="17"/>
-        <v>4.3442901629986697</v>
+        <v>7.2130507374187713</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="18"/>
-        <v>0.81742200000000054</v>
+        <v>0.74692299999999978</v>
       </c>
       <c r="S18">
         <v>5.3733880000000003</v>
@@ -4746,10 +4757,11 @@
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19">
-        <v>99</v>
+        <f t="shared" si="20"/>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -4758,46 +4770,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>8.4258170000000003</v>
+        <v>6.8973000000000004</v>
       </c>
       <c r="I19">
-        <v>9.4685769999999998</v>
+        <v>5.9381779999999997</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="10"/>
-        <v>1.0427599999999995</v>
+        <v>-0.9591220000000007</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="11"/>
-        <v>-0.76835762500000193</v>
+        <v>-1.5770115000000011</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="12"/>
-        <v>-0.99654508333333247</v>
+        <v>-0.26670833333333199</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="13"/>
-        <v>0.59037343989564361</v>
+        <v>2.4869652711322536</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="14"/>
-        <v>0.99310210311583857</v>
+        <v>7.1133335069443734E-2</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="15"/>
-        <v>0.76570301343542835</v>
+        <v>0.42060210881249821</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="16"/>
-        <v>1.0873484175999988</v>
+        <v>0.91991501088400129</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="17"/>
-        <v>2.1358185225069746E-3</v>
+        <v>1.5026600061201096</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="18"/>
-        <v>1.0427599999999995</v>
+        <v>0.9591220000000007</v>
       </c>
       <c r="S19">
         <v>6.4953919999999998</v>
@@ -4813,10 +4825,11 @@
     </row>
     <row r="20" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D20">
-        <v>100</v>
+        <f t="shared" si="20"/>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -4825,46 +4838,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>9.8249289999999991</v>
+        <v>7.9276479999999996</v>
       </c>
       <c r="I20">
-        <v>10.971640000000001</v>
+        <v>8.0011919999999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="10"/>
-        <v>1.1467110000000016</v>
+        <v>7.3544000000000054E-2</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="11"/>
-        <v>0.73470537499999899</v>
+        <v>0.48600249999999878</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="12"/>
-        <v>0.40256691666666633</v>
+        <v>0.76363966666666716</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="13"/>
-        <v>0.53979198805388917</v>
+        <v>0.23619843000624882</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="14"/>
-        <v>0.16206012239450668</v>
+        <v>0.58314554050677858</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="15"/>
-        <v>0.29576807747217643</v>
+        <v>0.37113078709916597</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="16"/>
-        <v>1.3149461175210035</v>
+        <v>5.4087199360000077E-3</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="17"/>
-        <v>2.4002620630710108</v>
+        <v>0.70087649173344535</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="18"/>
-        <v>1.1467110000000016</v>
+        <v>7.3544000000000054E-2</v>
       </c>
       <c r="S20">
         <v>9.6104040000000008</v>
@@ -4880,10 +4893,11 @@
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D21">
-        <v>101</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -4892,46 +4906,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>11.538843</v>
+        <v>9.0746249999999993</v>
       </c>
       <c r="I21">
-        <v>13.396042</v>
+        <v>10.241529</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="10"/>
-        <v>1.8571989999999996</v>
+        <v>1.1669040000000006</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="11"/>
-        <v>3.1591073749999978</v>
+        <v>2.726339499999999</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="12"/>
-        <v>2.1164809166666672</v>
+        <v>1.9106166666666669</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="13"/>
-        <v>9.9799594067793773</v>
+        <v>7.4329270692602449</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="14"/>
-        <v>4.4794914706141755</v>
+        <v>3.6504560469444454</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="15"/>
-        <v>6.6861904728884243</v>
+        <v>5.2089896876916653</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="16"/>
-        <v>3.4491881256009984</v>
+        <v>1.3616649452160015</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="17"/>
-        <v>15.790132080120008</v>
+        <v>9.4711334537604497</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="18"/>
-        <v>1.8571989999999996</v>
+        <v>1.1669040000000006</v>
       </c>
       <c r="S21">
         <v>10.771552</v>
@@ -4947,10 +4961,11 @@
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D22">
-        <v>102</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -4959,46 +4974,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>13.794454999999999</v>
+        <v>10.537362</v>
       </c>
       <c r="I22">
-        <v>16.501448</v>
+        <v>12.795609000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="10"/>
-        <v>2.7069930000000006</v>
+        <v>2.2582470000000008</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="11"/>
-        <v>6.2645133749999982</v>
+        <v>5.2804194999999998</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="12"/>
-        <v>4.3720929166666664</v>
+        <v>3.3733536666666675</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="13"/>
-        <v>39.244127825553868</v>
+        <v>27.88283009598025</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="14"/>
-        <v>19.11519647196684</v>
+        <v>11.37951496041345</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="15"/>
-        <v>27.389034553201085</v>
+        <v>17.812722481863169</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="16"/>
-        <v>7.3278111020490035</v>
+        <v>5.0996795130090034</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="17"/>
-        <v>50.113457415548346</v>
+        <v>31.714926068800462</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="18"/>
-        <v>2.7069930000000006</v>
+        <v>2.2582470000000008</v>
       </c>
       <c r="S22">
         <v>13.215975</v>
@@ -5014,10 +5029,11 @@
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D23">
-        <v>103</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -5026,46 +5042,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>14.277737999999999</v>
+        <v>10.470796</v>
       </c>
       <c r="I23">
-        <v>16.281116000000001</v>
+        <v>12.995020999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="10"/>
-        <v>2.0033780000000014</v>
+        <v>2.5242249999999995</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="11"/>
-        <v>6.0441813749999991</v>
+        <v>5.4798314999999986</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="12"/>
-        <v>4.8553759166666666</v>
+        <v>3.3067876666666676</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="13"/>
-        <v>36.532128493896877</v>
+        <v>30.028553268392233</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="14"/>
-        <v>23.574675292146672</v>
+        <v>10.934844672418784</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="15"/>
-        <v>29.346772684140213</v>
+        <v>18.120639219611501</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="16"/>
-        <v>4.0135234108840061</v>
+        <v>6.3717118506249975</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="17"/>
-        <v>47.042505289390355</v>
+        <v>34.000708718827113</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="18"/>
-        <v>2.0033780000000014</v>
+        <v>2.5242249999999995</v>
       </c>
       <c r="S23">
         <v>15.243527</v>
@@ -5081,10 +5097,11 @@
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D24">
-        <v>104</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -5093,46 +5110,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.609985</v>
+        <v>9.5040890000000005</v>
       </c>
       <c r="I24">
-        <v>12.62007</v>
+        <v>10.865838999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="10"/>
-        <v>1.0085000000000122E-2</v>
+        <v>1.3617499999999989</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="11"/>
-        <v>2.3831353749999984</v>
+        <v>3.3506494999999985</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="12"/>
-        <v>3.1876229166666672</v>
+        <v>2.340080666666668</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="13"/>
-        <v>5.6793342155763833</v>
+        <v>11.22685207185024</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="14"/>
-        <v>10.16093985885851</v>
+        <v>5.4759775265071173</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="15"/>
-        <v>7.5965369348690066</v>
+        <v>7.8407901157263344</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="16"/>
-        <v>1.0170722500000246E-4</v>
+        <v>1.8543630624999969</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="17"/>
-        <v>10.225335920312677</v>
+        <v>13.70355028467378</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="18"/>
-        <v>1.0085000000000122E-2</v>
+        <v>1.3617499999999989</v>
       </c>
       <c r="S24">
         <v>14.913529</v>
@@ -5148,10 +5165,11 @@
     </row>
     <row r="25" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D25">
-        <v>105</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -5160,46 +5178,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>10.876217</v>
+        <v>7.5371370000000004</v>
       </c>
       <c r="I25">
-        <v>11.421079000000001</v>
+        <v>8.2171249999999993</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="10"/>
-        <v>0.54486200000000018</v>
+        <v>0.67998799999999893</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="11"/>
-        <v>1.1841443749999989</v>
+        <v>0.70193549999999849</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="12"/>
-        <v>1.4538549166666677</v>
+        <v>0.373128666666668</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="13"/>
-        <v>1.4021979008441381</v>
+        <v>0.49271344616024787</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="14"/>
-        <v>2.1136941187158431</v>
+        <v>0.13922500188844544</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="15"/>
-        <v>1.7215741216369267</v>
+        <v>0.26191225720100036</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="16"/>
-        <v>0.29687459904400021</v>
+        <v>0.46238368014399855</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="17"/>
-        <v>3.9948693129695116</v>
+        <v>1.1090547136111117</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="18"/>
-        <v>0.54486200000000018</v>
+        <v>0.67998799999999893</v>
       </c>
       <c r="S25">
         <v>13.524543</v>
@@ -5215,10 +5233,11 @@
     </row>
     <row r="26" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D26">
-        <v>106</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F26">
         <v>11</v>
@@ -5227,46 +5246,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>7.8479000000000001</v>
+        <v>5.0717800000000004</v>
       </c>
       <c r="I26">
-        <v>7.6621800000000002</v>
+        <v>5.3245519999999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="10"/>
-        <v>-0.18571999999999989</v>
+        <v>0.25277199999999933</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="11"/>
-        <v>-2.5747546250000015</v>
+        <v>-2.1906375000000011</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="12"/>
-        <v>-1.5744620833333327</v>
+        <v>-2.092228333333332</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="13"/>
-        <v>6.6293613789588983</v>
+        <v>4.7988926564062551</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="14"/>
-        <v>2.4789308518543383</v>
+        <v>4.3774193988027719</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="15"/>
-        <v>4.0538535309496364</v>
+        <v>4.5833138455624995</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="16"/>
-        <v>3.449191839999996E-2</v>
+        <v>6.3893683983999666E-2</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="17"/>
-        <v>3.0982409664876709</v>
+        <v>3.3835996022401087</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="18"/>
-        <v>0.18571999999999989</v>
+        <v>0.25277199999999933</v>
       </c>
       <c r="S26">
         <v>7.9147090000000002</v>
@@ -5282,10 +5301,11 @@
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D27">
-        <v>107</v>
+        <f t="shared" si="20"/>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -5294,46 +5314,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>6.0494380000000003</v>
+        <v>4.8290819999999997</v>
       </c>
       <c r="I27">
-        <v>6.3589380000000002</v>
+        <v>4.3577589999999997</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="10"/>
-        <v>0.30949999999999989</v>
+        <v>-0.47132299999999994</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="11"/>
-        <v>-3.8779966250000015</v>
+        <v>-3.1574305000000011</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3729240833333325</v>
+        <v>-2.3349263333333328</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="13"/>
-        <v>15.038857823511403</v>
+        <v>9.9693673623302566</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="14"/>
-        <v>11.37661687193</v>
+        <v>5.4518809820934422</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="15"/>
-        <v>13.080188211547886</v>
+        <v>7.3723676201198343</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="16"/>
-        <v>9.5790249999999924E-2</v>
+        <v>0.22214537032899995</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="17"/>
-        <v>9.3845671143466696</v>
+        <v>7.8750353208337742</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="18"/>
-        <v>0.30949999999999989</v>
+        <v>0.47132299999999994</v>
       </c>
       <c r="S27">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Temp24monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Temp24monthsStatisticsCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA095E8-5571-4444-8201-6BFDC8A68545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6111C15-29CA-4452-8452-C72C02D80505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Month index</t>
   </si>
@@ -163,12 +163,6 @@
   </si>
   <si>
     <t>MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</t>
   </si>
 </sst>
 </file>
@@ -765,34 +759,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. measured stream temperature for 2010-18 on the McKenzie R. above Hayden</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Br. near Springfield</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Statistics calculator'!$H$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -854,76 +829,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5.2630109999999997</c:v>
+                  <c:v>7.6842249999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9689220000000001</c:v>
+                  <c:v>5.2361550000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3977139999999997</c:v>
+                  <c:v>7.1393219999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7900359999999997</c:v>
+                  <c:v>9.6147960000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0409229999999994</c:v>
+                  <c:v>12.315754999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6339389999999998</c:v>
+                  <c:v>14.849102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.283904</c:v>
+                  <c:v>15.898477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.655110000000001</c:v>
+                  <c:v>17.249399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7204519999999999</c:v>
+                  <c:v>13.340890999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0433490000000001</c:v>
+                  <c:v>9.0076199999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0408650000000002</c:v>
+                  <c:v>9.6654540000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3657329999999996</c:v>
+                  <c:v>6.6999219999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.691846</c:v>
+                  <c:v>6.3026619999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9653580000000002</c:v>
+                  <c:v>6.3501719999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2252190000000001</c:v>
+                  <c:v>6.9881310000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8973000000000004</c:v>
+                  <c:v>10.241149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9276479999999996</c:v>
+                  <c:v>11.713402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0746249999999993</c:v>
+                  <c:v>13.299085</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.537362</c:v>
+                  <c:v>16.345236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.470796</c:v>
+                  <c:v>16.970078999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.5040890000000005</c:v>
+                  <c:v>15.606588</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5371370000000004</c:v>
+                  <c:v>11.929054000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0717800000000004</c:v>
+                  <c:v>7.3679379999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8290819999999997</c:v>
+                  <c:v>6.5255089999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14178000_temp_NO SANTIAM R BLW BOULDER CRK  NR DETROIT  OR_23780591.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -968,76 +943,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.1109790000000004</c:v>
+                  <c:v>5.5099270000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8575520000000001</c:v>
+                  <c:v>3.513385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7842709999999999</c:v>
+                  <c:v>4.2432109999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.474094</c:v>
+                  <c:v>6.6985450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5438500000000008</c:v>
+                  <c:v>10.030443999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.242884999999999</c:v>
+                  <c:v>13.900373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.688961000000001</c:v>
+                  <c:v>16.350100000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.284344000000001</c:v>
+                  <c:v>17.488420000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.13861</c:v>
+                  <c:v>14.479448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8337709999999996</c:v>
+                  <c:v>8.1125030000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.036613</c:v>
+                  <c:v>5.1309399999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.099933</c:v>
+                  <c:v>4.6582999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9977299999999998</c:v>
+                  <c:v>5.2433550000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0558550000000002</c:v>
+                  <c:v>4.7859699999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4782960000000003</c:v>
+                  <c:v>4.5606819999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9381779999999997</c:v>
+                  <c:v>6.4333660000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0011919999999996</c:v>
+                  <c:v>8.6966269999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.241529</c:v>
+                  <c:v>10.684001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.795609000000001</c:v>
+                  <c:v>14.826744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.995020999999999</c:v>
+                  <c:v>16.206779000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.865838999999999</c:v>
+                  <c:v>13.634474000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.2171249999999993</c:v>
+                  <c:v>6.7793099999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3245519999999997</c:v>
+                  <c:v>6.3966750000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3577589999999997</c:v>
+                  <c:v>5.6173489999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3214,7 @@
   <dimension ref="A1:AD3182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I27"/>
+      <selection activeCell="H3" sqref="H3:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,7 +3250,7 @@
       </c>
       <c r="B2" s="10">
         <f>H2-I2</f>
-        <v>-0.35118116666666843</v>
+        <v>1.8482997916666637</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3285,11 +3260,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H27)</f>
-        <v>7.1640083333333324</v>
+        <v>10.764171791666664</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I27)</f>
-        <v>7.5151895000000009</v>
+        <v>8.9158720000000002</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3299,12 +3274,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P27)</f>
-        <v>2.0089798070566669</v>
+        <v>5.5318634058152085</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R27)</f>
-        <v>1.2048333333333334</v>
+        <v>2.0007332083333336</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S27)</f>
@@ -3323,11 +3298,11 @@
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>4.902020633234911E-2</v>
+        <v>-0.1717084999607279</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -3342,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -3411,11 +3386,11 @@
       </c>
       <c r="B4" s="11">
         <f>1-SUM(P4:P27)/SUM(M4:M27)</f>
-        <v>0.83135020401648851</v>
+        <v>0.7219200641496808</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3430,46 +3405,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.2630109999999997</v>
+        <v>7.6842249999999996</v>
       </c>
       <c r="I4">
-        <v>4.1109790000000004</v>
+        <v>5.5099270000000002</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-1.1520319999999993</v>
+        <v>-2.1742979999999994</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.4042105000000005</v>
+        <v>-3.405945</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-1.9009973333333328</v>
+        <v>-3.0799467916666643</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>11.588649128310253</v>
+        <v>11.600461343025</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3.6137908613404424</v>
+        <v>9.4860722394977781</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>6.4713950826053326</v>
+        <v>10.490129375343116</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>1.3271777290239983</v>
+        <v>4.7275717928039978</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>9.3209881101937704</v>
+        <v>27.607088330756262</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>1.1520319999999993</v>
+        <v>2.1742979999999994</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -3510,7 +3485,7 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(SUM(P4:P27))/SQRT(SUM(Q4:Q27))</f>
-        <v>0.40856043689966476</v>
+        <v>0.48715961913777756</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -3529,46 +3504,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>3.9689220000000001</v>
+        <v>5.2361550000000001</v>
       </c>
       <c r="I5">
-        <v>2.8575520000000001</v>
+        <v>3.513385</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J15" si="0">I5-H5</f>
-        <v>-1.11137</v>
+        <v>-1.7227700000000001</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K15" si="1">I5-I$2</f>
-        <v>-4.6576375000000008</v>
+        <v>-5.4024870000000007</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L15" si="2">H5-H$2</f>
-        <v>-3.1950863333333324</v>
+        <v>-5.5280167916666638</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M15" si="3">K5*K5</f>
-        <v>21.693587081406257</v>
+        <v>29.186865785169008</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N15" si="4">L5*L5</f>
-        <v>10.208576677453438</v>
+        <v>30.558969648948594</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O15" si="5">K5*L5</f>
-        <v>14.881553921870831</v>
+        <v>29.865038852760865</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P15" si="6">J5*J5</f>
-        <v>1.2351432768999999</v>
+        <v>2.9679364729000004</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q15" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>18.545566150906769</v>
+        <v>52.573909098207757</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R15" si="8">ABS(J5)</f>
-        <v>1.11137</v>
+        <v>1.7227700000000001</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -3609,7 +3584,7 @@
       </c>
       <c r="B6" s="12">
         <f>B12*B12</f>
-        <v>0.96051722198243328</v>
+        <v>0.90129646263894714</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -3628,46 +3603,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>5.3977139999999997</v>
+        <v>7.1393219999999999</v>
       </c>
       <c r="I6">
-        <v>3.7842709999999999</v>
+        <v>4.2432109999999996</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6134429999999997</v>
+        <v>-2.8961110000000003</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7309185000000009</v>
+        <v>-4.6726610000000006</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7662943333333327</v>
+        <v>-3.624849791666664</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>13.919752853642256</v>
+        <v>21.833760820921007</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>3.1197956719654423</v>
+        <v>13.139536012145857</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>6.5899002046784991</v>
+        <v>16.937694252378947</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>2.6031983142489992</v>
+        <v>8.3874589243210025</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>11.422624442327105</v>
+        <v>42.522929646453932</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>1.6134429999999997</v>
+        <v>2.8961110000000003</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -3708,7 +3683,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>7.1640083333333324</v>
+        <v>10.764171791666664</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -3724,46 +3699,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>6.7900359999999997</v>
+        <v>9.6147960000000001</v>
       </c>
       <c r="I7">
-        <v>5.474094</v>
+        <v>6.6985450000000002</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3159419999999997</v>
+        <v>-2.9162509999999999</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0410955000000008</v>
+        <v>-2.217327</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.37397233333333268</v>
+        <v>-1.1493757916666638</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>4.1660708401202537</v>
+        <v>4.9165390249290004</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>0.1398553060987773</v>
+        <v>1.3210647104693702</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>0.76331324669116563</v>
+        <v>2.5485419760088686</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>1.7317033473639993</v>
+        <v>8.5045198950009997</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>2.8558104540054412</v>
+        <v>16.529321209117768</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>1.3159419999999997</v>
+        <v>2.9162509999999999</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -3804,7 +3779,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H27)</f>
-        <v>2.1928998743773391</v>
+        <v>3.8442854242847444</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3820,46 +3795,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>8.0409229999999994</v>
+        <v>12.315754999999999</v>
       </c>
       <c r="I8">
-        <v>8.5438500000000008</v>
+        <v>10.030443999999999</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.50292700000000146</v>
+        <v>-2.2853110000000001</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>1.0286605</v>
+        <v>1.114571999999999</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.87691466666666695</v>
+        <v>1.5515832083333354</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>1.05814242426025</v>
+        <v>1.2422707431839979</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.76897933261511164</v>
+        <v>2.4074104523819666</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.90204747947066699</v>
+        <v>1.7293511996785007</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>0.25293556732900146</v>
+        <v>5.2226463667210004</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>1.9039630250694493</v>
+        <v>0.53835647226404049</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>0.50292700000000146</v>
+        <v>2.2853110000000001</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -3900,7 +3875,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>7.5151895000000009</v>
+        <v>8.9158720000000002</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3916,46 +3891,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>9.6339389999999998</v>
+        <v>14.849102</v>
       </c>
       <c r="I9">
-        <v>11.242884999999999</v>
+        <v>13.900373</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.6089459999999995</v>
+        <v>-0.94872900000000016</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>3.7276954999999985</v>
+        <v>4.9845009999999998</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>2.4699306666666674</v>
+        <v>4.0849302083333363</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>13.89571374072024</v>
+        <v>24.845250219000999</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>6.1005574981404482</v>
+        <v>16.686654806954234</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>9.2071494314453322</v>
+        <v>20.361338708367722</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>2.5887072309159986</v>
+        <v>0.90008671544100027</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>16.637234861877779</v>
+        <v>9.8357580191514771</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1.6089459999999995</v>
+        <v>0.94872900000000016</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -3996,7 +3971,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I27)</f>
-        <v>3.4513966694992928</v>
+        <v>4.4601647050005138</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4011,46 +3986,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>10.283904</v>
+        <v>15.898477</v>
       </c>
       <c r="I10">
-        <v>12.688961000000001</v>
+        <v>16.350100000000001</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.4050570000000011</v>
+        <v>0.45162300000000144</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.1737715</v>
+        <v>7.4342280000000009</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>3.1198956666666673</v>
+        <v>5.1343052083333358</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>26.767911534212249</v>
+        <v>55.267745955984012</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>9.7337489708854488</v>
+        <v>26.361089972318819</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>16.141627283173502</v>
+        <v>38.169595540337525</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>5.7842991732490052</v>
+        <v>0.20396333412900131</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>30.52510196890713</v>
+        <v>31.202593948654087</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>2.4050570000000011</v>
+        <v>0.45162300000000144</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -4091,7 +4066,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1.4173848479000568</v>
+        <v>2.3519913702680135</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4106,46 +4081,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>10.655110000000001</v>
+        <v>17.249399</v>
       </c>
       <c r="I11">
-        <v>13.284344000000001</v>
+        <v>17.488420000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.6292340000000003</v>
+        <v>0.23902100000000104</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>5.7691545</v>
+        <v>8.5725480000000012</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>3.4911016666666681</v>
+        <v>6.4852272083333364</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>33.28314364487025</v>
+        <v>73.488579212304018</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>12.187790847002788</v>
+        <v>42.058171943707002</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>20.140704890207509</v>
+        <v>55.594921534343534</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>6.9128714267560012</v>
+        <v>5.7131038441000495E-2</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>37.458508672672131</v>
+        <v>45.215513967274099</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>2.6292340000000003</v>
+        <v>0.23902100000000104</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -4186,7 +4161,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O27)/SQRT(SUM(M4:M27)*SUM(N4:N27))</f>
-        <v>0.98005980530906034</v>
+        <v>0.94936634796002073</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -4202,46 +4177,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>8.7204519999999999</v>
+        <v>13.340890999999999</v>
       </c>
       <c r="I12">
-        <v>11.13861</v>
+        <v>14.479448</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>2.418158</v>
+        <v>1.1385570000000005</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.623420499999999</v>
+        <v>5.5635759999999994</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>1.5564436666666674</v>
+        <v>2.5767192083333352</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>13.129176119820244</v>
+        <v>30.953377907775995</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2.4225168875067804</v>
+        <v>6.63948187859397</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>5.6396498888951676</v>
+        <v>14.335773146222342</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>5.8474881129640002</v>
+        <v>1.2963120422490011</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>15.797458408669451</v>
+        <v>13.803277304207727</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>2.418158</v>
+        <v>1.1385570000000005</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -4282,7 +4257,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>1.2048333333333334</v>
+        <v>2.0007332083333336</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4297,46 +4272,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>6.0433490000000001</v>
+        <v>9.0076199999999993</v>
       </c>
       <c r="I13">
-        <v>6.8337709999999996</v>
+        <v>8.1125030000000002</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.79042199999999951</v>
+        <v>-0.89511699999999905</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.68141850000000126</v>
+        <v>-0.803369</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1206593333333323</v>
+        <v>-1.7565517916666646</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.46433117214225172</v>
+        <v>0.64540175016099999</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>1.2558773413871089</v>
+        <v>3.0854741968073696</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>0.76363800193100073</v>
+        <v>1.4111592563194566</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>0.62476693808399919</v>
+        <v>0.80123444368899832</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>0.10905669632711078</v>
+        <v>7.0313473806989446</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>0.79042199999999951</v>
+        <v>0.89511699999999905</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -4385,46 +4360,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6.0408650000000002</v>
+        <v>9.6654540000000004</v>
       </c>
       <c r="I14">
-        <v>5.036613</v>
+        <v>5.1309399999999998</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0042520000000001</v>
+        <v>-4.5345140000000006</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4785765000000008</v>
+        <v>-3.7849320000000004</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1231433333333323</v>
+        <v>-1.0987177916666635</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6.1433414663522541</v>
+        <v>14.325710244624004</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.2614509472111086</v>
+        <v>1.2071807857248698</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>2.7837966721316652</v>
+        <v>4.1585721286484887</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.0085220795040002</v>
+        <v>20.561817216196005</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>4.5258109042884405</v>
+        <v>31.733300418644014</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>1.0042520000000001</v>
+        <v>4.5345140000000006</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -4462,7 +4437,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <f>B5</f>
-        <v>0.40856043689966476</v>
+        <v>0.48715961913777756</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4477,46 +4452,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>4.3657329999999996</v>
+        <v>6.6999219999999999</v>
       </c>
       <c r="I15">
-        <v>4.099933</v>
+        <v>4.6582999999999997</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26579999999999959</v>
+        <v>-2.0416220000000003</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4152565000000008</v>
+        <v>-4.2575720000000006</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7982753333333328</v>
+        <v>-4.064249791666664</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>11.663976960792256</v>
+        <v>18.126919335184006</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>7.8303448411417751</v>
+        <v>16.518126369062522</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>9.556828020956333</v>
+        <v>17.303836114005826</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>7.0649639999999778E-2</v>
+        <v>4.1682203908840014</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>9.3885576483417719</v>
+        <v>37.281670336270679</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>0.26579999999999959</v>
+        <v>2.0416220000000003</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -4566,46 +4541,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>4.691846</v>
+        <v>6.3026619999999998</v>
       </c>
       <c r="I16">
-        <v>3.9977299999999998</v>
+        <v>5.2433550000000002</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ref="J16:J27" si="10">I16-H16</f>
-        <v>-0.69411600000000018</v>
+        <v>-1.0593069999999996</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K27" si="11">I16-I$2</f>
-        <v>-3.5174595000000011</v>
+        <v>-3.672517</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L27" si="12">H16-H$2</f>
-        <v>-2.4721623333333325</v>
+        <v>-4.4615097916666642</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ref="M16:M27" si="13">K16*K16</f>
-        <v>12.372521334140258</v>
+        <v>13.487381115289001</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ref="N16:N27" si="14">L16*L16</f>
-        <v>6.1115866023521068</v>
+        <v>19.905069621137521</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ref="O16:O27" si="15">K16*L16</f>
-        <v>8.6957308849254993</v>
+        <v>16.384970555562283</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P27" si="16">J16*J16</f>
-        <v>0.48179702145600023</v>
+        <v>1.1221313202489991</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q27" si="17">(I16-H$2)*(I16-H$2)</f>
-        <v>10.025318484136108</v>
+        <v>30.479418047148595</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R27" si="18">ABS(J16)</f>
-        <v>0.69411600000000018</v>
+        <v>1.0593069999999996</v>
       </c>
       <c r="S16">
         <v>4.4663490000000001</v>
@@ -4634,46 +4609,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>4.9653580000000002</v>
+        <v>6.3501719999999997</v>
       </c>
       <c r="I17">
-        <v>4.0558550000000002</v>
+        <v>4.7859699999999998</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="10"/>
-        <v>-0.90950299999999995</v>
+        <v>-1.5642019999999999</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="11"/>
-        <v>-3.4593345000000006</v>
+        <v>-4.1299020000000004</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="12"/>
-        <v>-2.1986503333333323</v>
+        <v>-4.4139997916666642</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="13"/>
-        <v>11.966995182890255</v>
+        <v>17.056090529604003</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="14"/>
-        <v>4.8340632882667727</v>
+        <v>19.483394160833356</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="15"/>
-        <v>7.6058669515364974</v>
+        <v>18.229386567603743</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="16"/>
-        <v>0.82719570700899991</v>
+        <v>2.4467278968039996</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="17"/>
-        <v>9.6606171435111037</v>
+        <v>35.738896661886514</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="18"/>
-        <v>0.90950299999999995</v>
+        <v>1.5642019999999999</v>
       </c>
       <c r="S17">
         <v>4.6956059999999997</v>
@@ -4702,46 +4677,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.2252190000000001</v>
+        <v>6.9881310000000001</v>
       </c>
       <c r="I18">
-        <v>4.4782960000000003</v>
+        <v>4.5606819999999999</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="10"/>
-        <v>-0.74692299999999978</v>
+        <v>-2.4274490000000002</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0368935000000006</v>
+        <v>-4.3551900000000003</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9387893333333324</v>
+        <v>-3.7760407916666638</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="13"/>
-        <v>9.2227221303422535</v>
+        <v>18.967679936100001</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="14"/>
-        <v>3.7589040790471073</v>
+        <v>14.258484060330606</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="15"/>
-        <v>5.8878967242693312</v>
+        <v>16.44537509545874</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="16"/>
-        <v>0.5578939679289997</v>
+        <v>5.8925086476010007</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="17"/>
-        <v>7.2130507374187713</v>
+        <v>38.483285595312509</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="18"/>
-        <v>0.74692299999999978</v>
+        <v>2.4274490000000002</v>
       </c>
       <c r="S18">
         <v>5.3733880000000003</v>
@@ -4770,46 +4745,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6.8973000000000004</v>
+        <v>10.241149</v>
       </c>
       <c r="I19">
-        <v>5.9381779999999997</v>
+        <v>6.4333660000000004</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="10"/>
-        <v>-0.9591220000000007</v>
+        <v>-3.8077829999999997</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="11"/>
-        <v>-1.5770115000000011</v>
+        <v>-2.4825059999999999</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="12"/>
-        <v>-0.26670833333333199</v>
+        <v>-0.52302279166666388</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="13"/>
-        <v>2.4869652711322536</v>
+        <v>6.1628360400359998</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="14"/>
-        <v>7.1133335069443734E-2</v>
+        <v>0.2735528406027905</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="15"/>
-        <v>0.42060210881249821</v>
+        <v>1.298407218449243</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="16"/>
-        <v>0.91991501088400129</v>
+        <v>14.499211375088997</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="17"/>
-        <v>1.5026600061201096</v>
+        <v>18.755878805133516</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="18"/>
-        <v>0.9591220000000007</v>
+        <v>3.8077829999999997</v>
       </c>
       <c r="S19">
         <v>6.4953919999999998</v>
@@ -4838,46 +4813,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>7.9276479999999996</v>
+        <v>11.713402</v>
       </c>
       <c r="I20">
-        <v>8.0011919999999996</v>
+        <v>8.6966269999999994</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="10"/>
-        <v>7.3544000000000054E-2</v>
+        <v>-3.0167750000000009</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="11"/>
-        <v>0.48600249999999878</v>
+        <v>-0.2192450000000008</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="12"/>
-        <v>0.76363966666666716</v>
+        <v>0.94923020833333638</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="13"/>
-        <v>0.23619843000624882</v>
+        <v>4.8068370025000348E-2</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="14"/>
-        <v>0.58314554050677858</v>
+        <v>0.90103798841254923</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="15"/>
-        <v>0.37113078709916597</v>
+        <v>-0.20811397702604309</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="16"/>
-        <v>5.4087199360000077E-3</v>
+        <v>9.1009314006250044</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="17"/>
-        <v>0.70087649173344535</v>
+        <v>4.274741465547951</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="18"/>
-        <v>7.3544000000000054E-2</v>
+        <v>3.0167750000000009</v>
       </c>
       <c r="S20">
         <v>9.6104040000000008</v>
@@ -4906,46 +4881,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>9.0746249999999993</v>
+        <v>13.299085</v>
       </c>
       <c r="I21">
-        <v>10.241529</v>
+        <v>10.684001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="10"/>
-        <v>1.1669040000000006</v>
+        <v>-2.6150839999999995</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="11"/>
-        <v>2.726339499999999</v>
+        <v>1.7681290000000001</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="12"/>
-        <v>1.9106166666666669</v>
+        <v>2.5349132083333359</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="13"/>
-        <v>7.4329270692602449</v>
+        <v>3.126280160641</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="14"/>
-        <v>3.6504560469444454</v>
+        <v>6.4257849737828066</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="15"/>
-        <v>5.2089896876916653</v>
+        <v>4.4820535561372132</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="16"/>
-        <v>1.3616649452160015</v>
+        <v>6.8386643270559979</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="17"/>
-        <v>9.4711334537604497</v>
+        <v>6.4273558364595831E-3</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="18"/>
-        <v>1.1669040000000006</v>
+        <v>2.6150839999999995</v>
       </c>
       <c r="S21">
         <v>10.771552</v>
@@ -4974,46 +4949,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>10.537362</v>
+        <v>16.345236</v>
       </c>
       <c r="I22">
-        <v>12.795609000000001</v>
+        <v>14.826744</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="10"/>
-        <v>2.2582470000000008</v>
+        <v>-1.5184920000000002</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="11"/>
-        <v>5.2804194999999998</v>
+        <v>5.9108719999999995</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="12"/>
-        <v>3.3733536666666675</v>
+        <v>5.5810642083333359</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="13"/>
-        <v>27.88283009598025</v>
+        <v>34.938407800383992</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="14"/>
-        <v>11.37951496041345</v>
+        <v>31.148277697539406</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="15"/>
-        <v>17.812722481863169</v>
+        <v>32.988956159239677</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="16"/>
-        <v>5.0996795130090034</v>
+        <v>2.3058179540640005</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="17"/>
-        <v>31.714926068800462</v>
+        <v>16.504492947922397</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="18"/>
-        <v>2.2582470000000008</v>
+        <v>1.5184920000000002</v>
       </c>
       <c r="S22">
         <v>13.215975</v>
@@ -5042,46 +5017,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>10.470796</v>
+        <v>16.970078999999998</v>
       </c>
       <c r="I23">
-        <v>12.995020999999999</v>
+        <v>16.206779000000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="10"/>
-        <v>2.5242249999999995</v>
+        <v>-0.76329999999999742</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="11"/>
-        <v>5.4798314999999986</v>
+        <v>7.2909070000000007</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="12"/>
-        <v>3.3067876666666676</v>
+        <v>6.2059072083333344</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="13"/>
-        <v>30.028553268392233</v>
+        <v>53.157324882649007</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="14"/>
-        <v>10.934844672418784</v>
+        <v>38.513284278443642</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="15"/>
-        <v>18.120639219611501</v>
+        <v>45.246692306587974</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="16"/>
-        <v>6.3717118506249975</v>
+        <v>0.58262688999999612</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="17"/>
-        <v>34.000708718827113</v>
+        <v>29.621973224202002</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="18"/>
-        <v>2.5242249999999995</v>
+        <v>0.76329999999999742</v>
       </c>
       <c r="S23">
         <v>15.243527</v>
@@ -5110,46 +5085,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>9.5040890000000005</v>
+        <v>15.606588</v>
       </c>
       <c r="I24">
-        <v>10.865838999999999</v>
+        <v>13.634474000000001</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="10"/>
-        <v>1.3617499999999989</v>
+        <v>-1.9721139999999995</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="11"/>
-        <v>3.3506494999999985</v>
+        <v>4.7186020000000006</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="12"/>
-        <v>2.340080666666668</v>
+        <v>4.8424162083333364</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="13"/>
-        <v>11.22685207185024</v>
+        <v>22.265204834404006</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="14"/>
-        <v>5.4759775265071173</v>
+        <v>23.448994734729407</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="15"/>
-        <v>7.8407901157263344</v>
+        <v>22.8494348054741</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="16"/>
-        <v>1.8543630624999969</v>
+        <v>3.8892336289959979</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="17"/>
-        <v>13.70355028467378</v>
+        <v>8.2386347671632301</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="18"/>
-        <v>1.3617499999999989</v>
+        <v>1.9721139999999995</v>
       </c>
       <c r="S24">
         <v>14.913529</v>
@@ -5178,46 +5153,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>7.5371370000000004</v>
+        <v>11.929054000000001</v>
       </c>
       <c r="I25">
-        <v>8.2171249999999993</v>
+        <v>6.7793099999999997</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="10"/>
-        <v>0.67998799999999893</v>
+        <v>-5.149744000000001</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="11"/>
-        <v>0.70193549999999849</v>
+        <v>-2.1365620000000005</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="12"/>
-        <v>0.373128666666668</v>
+        <v>1.1648822083333368</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="13"/>
-        <v>0.49271344616024787</v>
+        <v>4.5648971798440021</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="14"/>
-        <v>0.13922500188844544</v>
+        <v>1.3569505592915514</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="15"/>
-        <v>0.26191225720100036</v>
+        <v>-2.4888430608010914</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="16"/>
-        <v>0.46238368014399855</v>
+        <v>26.51986326553601</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="17"/>
-        <v>1.1090547136111117</v>
+        <v>15.879123498684857</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="18"/>
-        <v>0.67998799999999893</v>
+        <v>5.149744000000001</v>
       </c>
       <c r="S25">
         <v>13.524543</v>
@@ -5246,46 +5221,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>5.0717800000000004</v>
+        <v>7.3679379999999997</v>
       </c>
       <c r="I26">
-        <v>5.3245519999999997</v>
+        <v>6.3966750000000001</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="10"/>
-        <v>0.25277199999999933</v>
+        <v>-0.97126299999999954</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="11"/>
-        <v>-2.1906375000000011</v>
+        <v>-2.5191970000000001</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="12"/>
-        <v>-2.092228333333332</v>
+        <v>-3.3962337916666643</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="13"/>
-        <v>4.7988926564062551</v>
+        <v>6.3463535248090004</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="14"/>
-        <v>4.3774193988027719</v>
+        <v>11.534403967658527</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="15"/>
-        <v>4.5833138455624995</v>
+        <v>8.5557819792652854</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="16"/>
-        <v>6.3893683983999666E-2</v>
+        <v>0.94335181516899913</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="17"/>
-        <v>3.3835996022401087</v>
+        <v>19.075028225218603</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="18"/>
-        <v>0.25277199999999933</v>
+        <v>0.97126299999999954</v>
       </c>
       <c r="S26">
         <v>7.9147090000000002</v>
@@ -5314,46 +5289,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>4.8290819999999997</v>
+        <v>6.5255089999999996</v>
       </c>
       <c r="I27">
-        <v>4.3577589999999997</v>
+        <v>5.6173489999999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="10"/>
-        <v>-0.47132299999999994</v>
+        <v>-0.90815999999999963</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1574305000000011</v>
+        <v>-3.2985230000000003</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="12"/>
-        <v>-2.3349263333333328</v>
+        <v>-4.2386627916666644</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="13"/>
-        <v>9.9693673623302566</v>
+        <v>10.880253981529002</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="14"/>
-        <v>5.4518809820934422</v>
+        <v>17.966262261459441</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="15"/>
-        <v>7.3723676201198343</v>
+        <v>13.981326707556702</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="16"/>
-        <v>0.22214537032899995</v>
+        <v>0.82475458559999937</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="17"/>
-        <v>7.8750353208337742</v>
+        <v>26.489784848819433</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="18"/>
-        <v>0.47132299999999994</v>
+        <v>0.90815999999999963</v>
       </c>
       <c r="S27">
         <v>4.2786520000000001</v>
